--- a/zssapp/WebContent/WEB-INF/books/display_sample.xlsx
+++ b/zssapp/WebContent/WEB-INF/books/display_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="18195" windowHeight="7110" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="18195" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="cell-text" sheetId="1" r:id="rId1"/>
@@ -632,16 +632,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;NT$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_-[$¥-411]* #,##0.00_-;\-[$¥-411]* #,##0.00_-;_-[$¥-411]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(0#\)\ ###\-####"/>
+    <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_-[$¥-411]* #,##0.00_-;\-[$¥-411]* #,##0.00_-;_-[$¥-411]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="[&lt;=9999999]###\-####;\(0#\)\ ###\-####"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -649,7 +649,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -657,7 +657,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -665,7 +665,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -673,7 +673,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -682,14 +682,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -697,7 +697,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -783,7 +783,7 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -791,7 +791,7 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -799,7 +799,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -807,7 +807,7 @@
     <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -815,7 +815,7 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -823,7 +823,7 @@
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -831,7 +831,7 @@
     <font>
       <sz val="72"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -840,7 +840,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -848,7 +848,7 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -856,7 +856,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -864,7 +864,7 @@
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -877,7 +877,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -947,7 +947,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -955,7 +955,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -968,7 +968,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -988,7 +988,7 @@
       <u val="double"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -997,7 +997,7 @@
       <u val="singleAccounting"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1006,7 +1006,14 @@
       <u val="doubleAccounting"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -1691,14 +1698,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1757,6 +1764,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1775,8 +1784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1815,7 +1822,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1926,7 +1933,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1935,7 +1942,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1943,7 +1950,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:view3D>
       <c:rotY val="30"/>
@@ -1955,10 +1962,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15789749537121892"/>
+          <c:x val="0.15789749537121897"/>
           <c:y val="4.9549549549549488E-2"/>
-          <c:w val="0.58796850393700573"/>
-          <c:h val="0.76578566465956777"/>
+          <c:w val="0.5879685039370055"/>
+          <c:h val="0.76578566465956799"/>
         </c:manualLayout>
       </c:layout>
       <c:area3DChart>
@@ -2185,25 +2192,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95131520"/>
-        <c:axId val="95133056"/>
-        <c:axId val="93314112"/>
+        <c:axId val="66450176"/>
+        <c:axId val="66451712"/>
+        <c:axId val="66411136"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="95131520"/>
+        <c:axId val="66450176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95133056"/>
+        <c:crossAx val="66451712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95133056"/>
+        <c:axId val="66451712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,24 +2218,23 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95131520"/>
+        <c:crossAx val="66450176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="93314112"/>
+        <c:axId val="66411136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95133056"/>
+        <c:crossAx val="66451712"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2237,7 +2243,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2245,7 +2251,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2488,22 +2494,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="100689408"/>
-        <c:axId val="100690944"/>
+        <c:axId val="72388992"/>
+        <c:axId val="72390528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100689408"/>
+        <c:axId val="72388992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100690944"/>
+        <c:crossAx val="72390528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100690944"/>
+        <c:axId val="72390528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,20 +2517,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100689408"/>
+        <c:crossAx val="72388992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2532,7 +2537,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2787,7 +2792,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2795,7 +2800,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -2877,23 +2882,23 @@
           </c:bubbleSize>
         </c:ser>
         <c:bubbleScale val="100"/>
-        <c:axId val="113941504"/>
-        <c:axId val="113939200"/>
+        <c:axId val="76931840"/>
+        <c:axId val="76933376"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="113941504"/>
+        <c:axId val="76931840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113939200"/>
+        <c:crossAx val="76933376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113939200"/>
+        <c:axId val="76933376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +2906,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113941504"/>
+        <c:crossAx val="76931840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2914,7 +2919,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2922,7 +2927,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -3246,22 +3251,22 @@
           </c:bubbleSize>
         </c:ser>
         <c:bubbleScale val="100"/>
-        <c:axId val="101032320"/>
-        <c:axId val="101033856"/>
+        <c:axId val="77062528"/>
+        <c:axId val="77064064"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="101032320"/>
+        <c:axId val="77062528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101033856"/>
+        <c:crossAx val="77064064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101033856"/>
+        <c:axId val="77064064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +3274,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101032320"/>
+        <c:crossAx val="77062528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3281,7 +3286,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3289,7 +3294,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -3526,25 +3531,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="101128832"/>
-        <c:axId val="101134720"/>
+        <c:axId val="86309504"/>
+        <c:axId val="86376832"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="101128832"/>
+        <c:axId val="86309504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101134720"/>
+        <c:crossAx val="86376832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101134720"/>
+        <c:axId val="86376832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3552,7 +3557,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101128832"/>
+        <c:crossAx val="86309504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3564,7 +3569,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3572,7 +3577,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3663,8 +3668,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.70019920318725093"/>
           <c:y val="0.18529458333168791"/>
-          <c:w val="0.25885988970479901"/>
-          <c:h val="0.5650910433070887"/>
+          <c:w val="0.25885988970479906"/>
+          <c:h val="0.56509104330708881"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -3674,7 +3679,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3683,7 +3688,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3691,7 +3696,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -3920,24 +3925,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92514944"/>
-        <c:axId val="92524928"/>
+        <c:axId val="87442176"/>
+        <c:axId val="87443712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92514944"/>
+        <c:axId val="87442176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92524928"/>
+        <c:crossAx val="87443712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92524928"/>
+        <c:axId val="87443712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3945,7 +3950,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92514944"/>
+        <c:crossAx val="87442176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3957,7 +3962,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3965,7 +3970,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:view3D>
       <c:perspective val="30"/>
@@ -4198,25 +4203,25 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="92800512"/>
-        <c:axId val="92802048"/>
+        <c:axId val="63889792"/>
+        <c:axId val="63891328"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="92800512"/>
+        <c:axId val="63889792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92802048"/>
+        <c:crossAx val="63891328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92802048"/>
+        <c:axId val="63891328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4224,7 +4229,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92800512"/>
+        <c:crossAx val="63889792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4236,7 +4241,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4244,7 +4249,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -4482,24 +4487,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92831744"/>
-        <c:axId val="92833280"/>
+        <c:axId val="63900288"/>
+        <c:axId val="63902080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92831744"/>
+        <c:axId val="63900288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92833280"/>
+        <c:crossAx val="63902080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92833280"/>
+        <c:axId val="63902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4507,7 +4512,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92831744"/>
+        <c:crossAx val="63900288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4519,7 +4524,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4527,7 +4532,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:view3D>
       <c:perspective val="30"/>
@@ -4758,25 +4763,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93596288"/>
-        <c:axId val="93602176"/>
-        <c:axId val="92854016"/>
+        <c:axId val="63915520"/>
+        <c:axId val="63917056"/>
+        <c:axId val="87267968"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="93596288"/>
+        <c:axId val="63915520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93602176"/>
+        <c:crossAx val="63917056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93602176"/>
+        <c:axId val="63917056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4784,19 +4789,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93596288"/>
+        <c:crossAx val="63915520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="92854016"/>
+        <c:axId val="87267968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93602176"/>
+        <c:crossAx val="63917056"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -4807,7 +4812,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4815,7 +4820,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -5044,24 +5049,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93640960"/>
-        <c:axId val="93261824"/>
+        <c:axId val="63931520"/>
+        <c:axId val="63933056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93640960"/>
+        <c:axId val="63931520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93261824"/>
+        <c:crossAx val="63933056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93261824"/>
+        <c:axId val="63933056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5069,7 +5074,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93640960"/>
+        <c:crossAx val="63931520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5081,7 +5086,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5089,7 +5094,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:view3D>
       <c:rotY val="30"/>
@@ -5103,7 +5108,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.25918955252544651"/>
           <c:y val="4.9549549549549488E-2"/>
-          <c:w val="0.50321397186770445"/>
+          <c:w val="0.50321397186770422"/>
           <c:h val="0.8221582606228276"/>
         </c:manualLayout>
       </c:layout>
@@ -5333,25 +5338,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="93287936"/>
-        <c:axId val="93289472"/>
+        <c:axId val="66400640"/>
+        <c:axId val="66402176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="93287936"/>
+        <c:axId val="66400640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93289472"/>
+        <c:crossAx val="66402176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93289472"/>
+        <c:axId val="66402176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5359,7 +5364,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93287936"/>
+        <c:crossAx val="66400640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5374,7 +5379,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5382,7 +5387,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="zh-TW"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -5610,24 +5615,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93318528"/>
-        <c:axId val="95093888"/>
+        <c:axId val="66414848"/>
+        <c:axId val="66428928"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="93318528"/>
+        <c:axId val="66414848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95093888"/>
+        <c:crossAx val="66428928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95093888"/>
+        <c:axId val="66428928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,20 +5640,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93318528"/>
+        <c:crossAx val="66414848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6484,11 +6488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -6527,17 +6529,17 @@
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -6609,19 +6611,19 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="127" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-    </row>
-    <row r="7" spans="1:13" ht="92.25">
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+    </row>
+    <row r="7" spans="1:13" ht="100.5">
       <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
@@ -6641,7 +6643,7 @@
       <c r="J7" s="26"/>
       <c r="K7" s="27"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="1"/>
       <c r="C8" s="9"/>
@@ -6659,7 +6661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="34.5">
+    <row r="10" spans="1:13" ht="36">
       <c r="A10" s="33" t="s">
         <v>38</v>
       </c>
@@ -6734,7 +6736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75">
+    <row r="19" spans="1:4" ht="19.5">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
     </row>
@@ -6744,7 +6746,7 @@
       </c>
       <c r="D20" s="92"/>
     </row>
-    <row r="21" spans="1:4" ht="18.75">
+    <row r="21" spans="1:4" ht="19.5">
       <c r="A21" s="38"/>
       <c r="B21" s="92" t="s">
         <v>152</v>
@@ -6752,7 +6754,7 @@
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
     </row>
-    <row r="22" spans="1:4" ht="20.25">
+    <row r="22" spans="1:4" ht="21">
       <c r="A22" s="38"/>
       <c r="B22" s="92" t="s">
         <v>152</v>
@@ -6762,7 +6764,7 @@
       </c>
       <c r="D22" s="92"/>
     </row>
-    <row r="23" spans="1:4" ht="18.75">
+    <row r="23" spans="1:4" ht="19.5">
       <c r="A23" s="38"/>
       <c r="B23" s="92"/>
       <c r="C23" s="92"/>
@@ -6776,7 +6778,7 @@
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
     </row>
-    <row r="25" spans="1:4" ht="76.5">
+    <row r="25" spans="1:4" ht="63.75">
       <c r="A25" s="4"/>
       <c r="B25" s="94" t="s">
         <v>155</v>
@@ -6784,7 +6786,7 @@
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
     </row>
-    <row r="26" spans="1:4" ht="60">
+    <row r="26" spans="1:4" ht="63">
       <c r="B26" s="94" t="s">
         <v>182</v>
       </c>
@@ -6847,6 +6849,7 @@
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B6:J6"/>
   </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B31" r:id="rId1"/>
   </hyperlinks>
@@ -6863,9 +6866,9 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75">
+    <row r="1" spans="1:1" ht="19.5">
       <c r="A1" s="88" t="s">
         <v>139</v>
       </c>
@@ -6875,7 +6878,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18.75">
+    <row r="20" spans="1:1" ht="19.5">
       <c r="A20" s="88" t="s">
         <v>140</v>
       </c>
@@ -6886,6 +6889,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6900,7 +6904,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
@@ -6956,7 +6960,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" hidden="1">
+    <row r="10" spans="1:3" ht="16.5" hidden="1">
       <c r="B10" t="s">
         <v>74</v>
       </c>
@@ -6995,6 +6999,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7007,16 +7012,16 @@
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
@@ -7031,6 +7036,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7043,7 +7049,7 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
@@ -7168,7 +7174,7 @@
       <c r="E18" s="59"/>
       <c r="F18" s="59"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="33" t="s">
         <v>141</v>
       </c>
@@ -7271,34 +7277,34 @@
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="127"/>
-      <c r="E28" s="126" t="s">
+      <c r="C28" s="129"/>
+      <c r="E28" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="128"/>
-      <c r="G28" s="127"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="129"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="131" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="132" t="s">
+      <c r="C31" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="133"/>
+      <c r="D31" s="135"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="130"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="135"/>
+      <c r="B32" s="132"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="137"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="131"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="137"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7307,6 +7313,7 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="C31:D33"/>
   </mergeCells>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7319,7 +7326,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
@@ -7354,7 +7361,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+    <row r="5" spans="1:9" ht="16.5" thickBot="1">
       <c r="B5" s="117" t="s">
         <v>170</v>
       </c>
@@ -7374,8 +7381,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:9" ht="16.5" thickBot="1"/>
+    <row r="8" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="B8" s="68" t="s">
         <v>64</v>
       </c>
@@ -7389,7 +7396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
       <c r="E9" s="72" t="s">
@@ -7441,6 +7448,7 @@
       <c r="F16" s="59"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7451,10 +7459,10 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -7554,7 +7562,7 @@
         <v>166</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -7599,11 +7607,11 @@
       <c r="D12" s="65">
         <v>3</v>
       </c>
-      <c r="F12" s="132">
+      <c r="F12" s="134">
         <v>1</v>
       </c>
-      <c r="G12" s="138"/>
-      <c r="H12" s="133"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="135"/>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="66">
@@ -7615,9 +7623,9 @@
       <c r="D13" s="67">
         <v>6</v>
       </c>
-      <c r="F13" s="136"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="137"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="139"/>
     </row>
     <row r="14" spans="1:8">
       <c r="F14">
@@ -7634,9 +7642,10 @@
   <mergeCells count="1">
     <mergeCell ref="F12:H13"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <phoneticPr fontId="52" type="noConversion"/>
+  <dataValidations count="2">
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="not a valid grade" error="not a valid grade" promptTitle="4 grades only" prompt="input a grade score" sqref="B8">
-      <formula1>$C$88:$F$88</formula1>
+      <formula1>$C$8:$F$8</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sorry" error="1 - 10" prompt="valid between 1 to 10" sqref="B7">
       <formula1>1</formula1>
@@ -7656,14 +7665,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42">
+    <row r="1" spans="1:3" ht="48">
       <c r="A1" s="86" t="s">
         <v>12</v>
       </c>
@@ -7675,7 +7684,7 @@
         <v>ZK</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5">
+    <row r="2" spans="1:3" ht="32.25">
       <c r="A2" s="86"/>
       <c r="B2" s="87" t="s">
         <v>183</v>
@@ -7689,7 +7698,7 @@
       <c r="A3" s="86"/>
       <c r="B3" s="87"/>
     </row>
-    <row r="4" spans="1:3" ht="61.5">
+    <row r="4" spans="1:3" ht="63.75">
       <c r="A4" s="86" t="s">
         <v>167</v>
       </c>
@@ -7701,7 +7710,7 @@
         <v>The first row is freezed.</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
+    <row r="5" spans="1:3" ht="63">
       <c r="B5" s="87" t="s">
         <v>185</v>
       </c>
@@ -7711,6 +7720,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7724,7 +7734,7 @@
       <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
   </cols>
@@ -7763,6 +7773,7 @@
     </row>
     <row r="6" spans="1:13" hidden="1"/>
   </sheetData>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7776,7 +7787,7 @@
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
@@ -7836,6 +7847,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7851,7 +7863,7 @@
       <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
@@ -7885,6 +7897,7 @@
     </row>
     <row r="6" spans="1:3" hidden="1"/>
   </sheetData>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7893,11 +7906,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+    <sheetView topLeftCell="A143" workbookViewId="0">
       <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
@@ -7938,7 +7951,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="19.5" thickBot="1">
+    <row r="12" spans="1:14" ht="20.25" thickBot="1">
       <c r="A12" s="88" t="s">
         <v>106</v>
       </c>
@@ -7946,7 +7959,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1">
+    <row r="13" spans="1:14" ht="16.5" thickBot="1">
       <c r="A13" s="90" t="s">
         <v>84</v>
       </c>
@@ -7960,7 +7973,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+    <row r="14" spans="1:14" ht="16.5" thickBot="1">
       <c r="A14" t="s">
         <v>131</v>
       </c>
@@ -7974,7 +7987,7 @@
         <v>0.2268</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1">
+    <row r="15" spans="1:14" ht="16.5" thickBot="1">
       <c r="A15" t="s">
         <v>130</v>
       </c>
@@ -7988,7 +8001,7 @@
         <v>0.2276</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1">
+    <row r="16" spans="1:14" ht="16.5" thickBot="1">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -8002,7 +8015,7 @@
         <v>0.2273</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1">
       <c r="A17" t="s">
         <v>128</v>
       </c>
@@ -8016,7 +8029,7 @@
         <v>0.22489999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -8030,7 +8043,7 @@
         <v>0.22969999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -8044,7 +8057,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -8058,7 +8071,7 @@
         <v>0.21010000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="16.5" thickBot="1">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -8072,7 +8085,7 @@
         <v>0.2016</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -8086,7 +8099,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -8100,7 +8113,7 @@
         <v>0.19570000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16.5" thickBot="1">
       <c r="A24" t="s">
         <v>121</v>
       </c>
@@ -8114,7 +8127,7 @@
         <v>0.19739999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="16.5" thickBot="1">
       <c r="A25" t="s">
         <v>120</v>
       </c>
@@ -8128,7 +8141,7 @@
         <v>0.18709999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1">
+    <row r="26" spans="1:12" ht="16.5" thickBot="1">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -8142,7 +8155,7 @@
         <v>0.18390000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="16.5" thickBot="1">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -8156,7 +8169,7 @@
         <v>0.18279999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="16.5" thickBot="1">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -8170,7 +8183,7 @@
         <v>0.17860000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18.75">
+    <row r="32" spans="1:12" ht="19.5">
       <c r="A32" s="88" t="s">
         <v>113</v>
       </c>
@@ -8234,7 +8247,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75">
+    <row r="48" spans="1:2" ht="19.5">
       <c r="A48" s="88" t="s">
         <v>107</v>
       </c>
@@ -8244,7 +8257,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="18.75">
+    <row r="69" spans="1:12" ht="19.5">
       <c r="A69" s="88" t="s">
         <v>108</v>
       </c>
@@ -8259,12 +8272,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="18.75">
+    <row r="95" spans="1:12" ht="19.5">
       <c r="A95" s="88" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="18.75">
+    <row r="117" spans="1:8" ht="19.5">
       <c r="A117" s="88" t="s">
         <v>110</v>
       </c>
@@ -8274,17 +8287,17 @@
         <v>112</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18.75">
+    <row r="137" spans="1:1" ht="19.5">
       <c r="A137" s="88" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="18.75">
+    <row r="155" spans="1:3" ht="19.5">
       <c r="A155" s="88" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30">
+    <row r="158" spans="1:3" ht="31.5">
       <c r="A158" t="s">
         <v>193</v>
       </c>
@@ -8299,10 +8312,10 @@
       <c r="A159">
         <v>5</v>
       </c>
-      <c r="B159" s="141">
+      <c r="B159" s="125">
         <v>5500</v>
       </c>
-      <c r="C159" s="140">
+      <c r="C159" s="124">
         <v>0.03</v>
       </c>
     </row>
@@ -8310,10 +8323,10 @@
       <c r="A160">
         <v>14</v>
       </c>
-      <c r="B160" s="141">
+      <c r="B160" s="125">
         <v>12200</v>
       </c>
-      <c r="C160" s="140">
+      <c r="C160" s="124">
         <v>0.12</v>
       </c>
     </row>
@@ -8321,10 +8334,10 @@
       <c r="A161">
         <v>20</v>
       </c>
-      <c r="B161" s="141">
+      <c r="B161" s="125">
         <v>60000</v>
       </c>
-      <c r="C161" s="140">
+      <c r="C161" s="124">
         <v>0.33</v>
       </c>
     </row>
@@ -8332,10 +8345,10 @@
       <c r="A162">
         <v>18</v>
       </c>
-      <c r="B162" s="141">
+      <c r="B162" s="125">
         <v>24400</v>
       </c>
-      <c r="C162" s="140">
+      <c r="C162" s="124">
         <v>0.1</v>
       </c>
     </row>
@@ -8343,10 +8356,10 @@
       <c r="A163">
         <v>22</v>
       </c>
-      <c r="B163" s="141">
+      <c r="B163" s="125">
         <v>32000</v>
       </c>
-      <c r="C163" s="140">
+      <c r="C163" s="124">
         <v>0.42</v>
       </c>
     </row>
@@ -8354,6 +8367,7 @@
       <c r="A249" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="52" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A28" r:id="rId1" location="browser-ww-monthly-201303-201303-bar" display="http://gs.statcounter.com/ - browser-ww-monthly-201303-201303-bar"/>
     <hyperlink ref="A27" r:id="rId2" location="browser-ww-monthly-201302-201302-bar" display="http://gs.statcounter.com/ - browser-ww-monthly-201302-201302-bar"/>
